--- a/September'21/11.09.2021/Bank Statement August-2021.xlsx
+++ b/September'21/11.09.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -3697,6 +3697,15 @@
     <xf numFmtId="2" fontId="56" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3713,12 +3722,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4023,9 +4026,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4630,70 +4630,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="412" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="409"/>
-      <c r="C1" s="409"/>
-      <c r="D1" s="409"/>
-      <c r="E1" s="409"/>
-      <c r="F1" s="409"/>
-      <c r="G1" s="409"/>
-      <c r="H1" s="409"/>
-      <c r="I1" s="409"/>
-      <c r="J1" s="409"/>
-      <c r="K1" s="409"/>
-      <c r="L1" s="409"/>
-      <c r="M1" s="409"/>
-      <c r="N1" s="409"/>
-      <c r="O1" s="409"/>
-      <c r="P1" s="409"/>
-      <c r="Q1" s="409"/>
-      <c r="R1" s="409"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="412"/>
+      <c r="K1" s="412"/>
+      <c r="L1" s="412"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="412"/>
+      <c r="P1" s="412"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="412"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="410" t="s">
+      <c r="A2" s="413" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="410"/>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
-      <c r="J2" s="410"/>
-      <c r="K2" s="410"/>
-      <c r="L2" s="410"/>
-      <c r="M2" s="410"/>
-      <c r="N2" s="410"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="410"/>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="410"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="413"/>
+      <c r="P2" s="413"/>
+      <c r="Q2" s="413"/>
+      <c r="R2" s="413"/>
     </row>
     <row r="3" spans="1:25" s="70" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="422" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="422"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
-      <c r="G3" s="422"/>
-      <c r="H3" s="422"/>
-      <c r="I3" s="422"/>
-      <c r="J3" s="422"/>
-      <c r="K3" s="422"/>
-      <c r="L3" s="422"/>
-      <c r="M3" s="422"/>
-      <c r="N3" s="422"/>
-      <c r="O3" s="422"/>
-      <c r="P3" s="422"/>
-      <c r="Q3" s="422"/>
-      <c r="R3" s="423"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="423"/>
+      <c r="M3" s="423"/>
+      <c r="N3" s="423"/>
+      <c r="O3" s="423"/>
+      <c r="P3" s="423"/>
+      <c r="Q3" s="423"/>
+      <c r="R3" s="424"/>
       <c r="T3" s="71"/>
       <c r="U3" s="72"/>
       <c r="V3" s="72"/>
@@ -4702,55 +4702,55 @@
       <c r="Y3" s="73"/>
     </row>
     <row r="4" spans="1:25" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="411" t="s">
+      <c r="A4" s="414" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="413" t="s">
+      <c r="B4" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="416" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="415" t="s">
+      <c r="D4" s="410" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="410" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="415" t="s">
+      <c r="F4" s="410" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="415" t="s">
+      <c r="G4" s="410" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="415" t="s">
+      <c r="H4" s="410" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="415" t="s">
+      <c r="I4" s="410" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="415" t="s">
+      <c r="J4" s="410" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="424" t="s">
+      <c r="K4" s="425" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="417" t="s">
+      <c r="L4" s="418" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="426" t="s">
+      <c r="M4" s="427" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="428" t="s">
+      <c r="N4" s="429" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="430" t="s">
+      <c r="O4" s="431" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="417" t="s">
+      <c r="P4" s="418" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" s="419" t="s">
+      <c r="Q4" s="420" t="s">
         <v>106</v>
       </c>
       <c r="R4" s="247" t="s">
@@ -4763,23 +4763,23 @@
       <c r="X4" s="72"/>
     </row>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="412"/>
-      <c r="B5" s="414"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="416"/>
-      <c r="E5" s="416"/>
-      <c r="F5" s="416"/>
-      <c r="G5" s="416"/>
-      <c r="H5" s="416"/>
-      <c r="I5" s="416"/>
-      <c r="J5" s="416"/>
-      <c r="K5" s="425"/>
-      <c r="L5" s="418"/>
-      <c r="M5" s="427"/>
-      <c r="N5" s="429"/>
-      <c r="O5" s="431"/>
-      <c r="P5" s="418"/>
-      <c r="Q5" s="420"/>
+      <c r="A5" s="415"/>
+      <c r="B5" s="417"/>
+      <c r="C5" s="417"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="411"/>
+      <c r="G5" s="411"/>
+      <c r="H5" s="411"/>
+      <c r="I5" s="411"/>
+      <c r="J5" s="411"/>
+      <c r="K5" s="426"/>
+      <c r="L5" s="419"/>
+      <c r="M5" s="428"/>
+      <c r="N5" s="430"/>
+      <c r="O5" s="432"/>
+      <c r="P5" s="419"/>
+      <c r="Q5" s="421"/>
       <c r="R5" s="248" t="s">
         <v>31</v>
       </c>
@@ -7747,6 +7747,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7763,10 +7767,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7780,8 +7780,8 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7806,37 +7806,37 @@
       <c r="H1" s="277"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="439" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="441"/>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="516" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="516"/>
-      <c r="D3" s="516"/>
-      <c r="E3" s="516"/>
-      <c r="F3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="518"/>
       <c r="H3" s="93"/>
       <c r="I3" s="93"/>
       <c r="J3" s="93"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="441" t="s">
+      <c r="B4" s="442" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="444"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="309" t="s">
@@ -7861,7 +7861,7 @@
       <c r="C6" s="365">
         <v>300000</v>
       </c>
-      <c r="D6" s="513"/>
+      <c r="D6" s="514"/>
       <c r="E6" s="367" t="s">
         <v>0</v>
       </c>
@@ -7877,7 +7877,7 @@
       <c r="C7" s="366">
         <v>25000</v>
       </c>
-      <c r="D7" s="513"/>
+      <c r="D7" s="514"/>
       <c r="E7" s="367" t="s">
         <v>168</v>
       </c>
@@ -7893,19 +7893,19 @@
       <c r="C8" s="387">
         <v>2000000</v>
       </c>
-      <c r="D8" s="513"/>
+      <c r="D8" s="514"/>
       <c r="E8" s="369" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="518">
+      <c r="F8" s="409">
         <v>902002.67500000005</v>
       </c>
       <c r="G8" s="24"/>
-      <c r="K8" s="444" t="s">
+      <c r="K8" s="445" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="445"/>
-      <c r="M8" s="446"/>
+      <c r="L8" s="446"/>
+      <c r="M8" s="447"/>
     </row>
     <row r="9" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="360" t="s">
@@ -7914,7 +7914,7 @@
       <c r="C9" s="374">
         <v>2000000</v>
       </c>
-      <c r="D9" s="513"/>
+      <c r="D9" s="514"/>
       <c r="E9" s="370" t="s">
         <v>4</v>
       </c>
@@ -7939,7 +7939,7 @@
       <c r="C10" s="375">
         <v>19805</v>
       </c>
-      <c r="D10" s="513"/>
+      <c r="D10" s="514"/>
       <c r="E10" s="370" t="s">
         <v>2</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="C11" s="375">
         <v>0</v>
       </c>
-      <c r="D11" s="513"/>
+      <c r="D11" s="514"/>
       <c r="E11" s="372" t="s">
         <v>219</v>
       </c>
@@ -7990,7 +7990,7 @@
         <f>C11+C10</f>
         <v>19805</v>
       </c>
-      <c r="D12" s="513"/>
+      <c r="D12" s="514"/>
       <c r="E12" s="371" t="s">
         <v>7</v>
       </c>
@@ -8009,7 +8009,7 @@
       <c r="C13" s="375">
         <v>22889.289999999997</v>
       </c>
-      <c r="D13" s="513"/>
+      <c r="D13" s="514"/>
       <c r="E13" s="371" t="s">
         <v>220</v>
       </c>
@@ -8028,7 +8028,7 @@
       <c r="C14" s="377">
         <v>0</v>
       </c>
-      <c r="D14" s="513"/>
+      <c r="D14" s="514"/>
       <c r="E14" s="370" t="s">
         <v>5</v>
       </c>
@@ -8048,7 +8048,7 @@
         <f>C13+C14</f>
         <v>22889.289999999997</v>
       </c>
-      <c r="D15" s="513"/>
+      <c r="D15" s="514"/>
       <c r="E15" s="370" t="s">
         <v>221</v>
       </c>
@@ -8072,7 +8072,7 @@
         <f>C15-C12</f>
         <v>3084.2899999999972</v>
       </c>
-      <c r="D16" s="513"/>
+      <c r="D16" s="514"/>
       <c r="E16" s="372" t="s">
         <v>238</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="C17" s="380">
         <v>250000</v>
       </c>
-      <c r="D17" s="513"/>
+      <c r="D17" s="514"/>
       <c r="E17" s="373"/>
       <c r="F17" s="384"/>
       <c r="G17" s="19"/>
@@ -8119,7 +8119,7 @@
         <f>C9+C13-C12+C17</f>
         <v>2253084.29</v>
       </c>
-      <c r="D18" s="514"/>
+      <c r="D18" s="515"/>
       <c r="E18" s="407" t="s">
         <v>3</v>
       </c>
@@ -8139,24 +8139,24 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="510" t="s">
+      <c r="B19" s="511" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="511"/>
-      <c r="D19" s="511"/>
-      <c r="E19" s="511"/>
-      <c r="F19" s="512"/>
+      <c r="C19" s="512"/>
+      <c r="D19" s="512"/>
+      <c r="E19" s="512"/>
+      <c r="F19" s="513"/>
       <c r="G19" s="19"/>
       <c r="K19" s="103"/>
       <c r="L19" s="103"/>
       <c r="M19" s="137"/>
     </row>
     <row r="20" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="447"/>
-      <c r="C20" s="448"/>
-      <c r="D20" s="448"/>
-      <c r="E20" s="448"/>
-      <c r="F20" s="449"/>
+      <c r="B20" s="448"/>
+      <c r="C20" s="449"/>
+      <c r="D20" s="449"/>
+      <c r="E20" s="449"/>
+      <c r="F20" s="450"/>
       <c r="G20" s="22"/>
       <c r="K20" s="138"/>
       <c r="L20" s="138"/>
@@ -8515,10 +8515,10 @@
       <c r="C55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
-      <c r="K55" s="436" t="s">
+      <c r="K55" s="437" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="437"/>
+      <c r="L55" s="438"/>
       <c r="M55" s="332">
         <f>SUM(M10:M54)</f>
         <v>118285</v>
@@ -9193,12 +9193,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="433" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="434"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="435"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -9213,12 +9213,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="435" t="s">
+      <c r="A2" s="436" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="435"/>
-      <c r="C2" s="435"/>
-      <c r="D2" s="435"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -11188,37 +11188,37 @@
       <c r="H1" s="277"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="439" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="441"/>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="450" t="s">
+      <c r="B3" s="451" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="451"/>
-      <c r="D3" s="451"/>
-      <c r="E3" s="451"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="453"/>
       <c r="H3" s="93"/>
       <c r="I3" s="93"/>
       <c r="J3" s="93"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="441" t="s">
+      <c r="B4" s="442" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="444"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="309" t="s">
@@ -11259,7 +11259,7 @@
       <c r="C7" s="337">
         <v>25000</v>
       </c>
-      <c r="D7" s="453"/>
+      <c r="D7" s="454"/>
       <c r="E7" s="339" t="s">
         <v>168</v>
       </c>
@@ -11269,17 +11269,17 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="456"/>
-      <c r="C8" s="457"/>
-      <c r="D8" s="454"/>
-      <c r="E8" s="458"/>
-      <c r="F8" s="459"/>
+      <c r="B8" s="457"/>
+      <c r="C8" s="458"/>
+      <c r="D8" s="455"/>
+      <c r="E8" s="459"/>
+      <c r="F8" s="460"/>
       <c r="G8" s="24"/>
-      <c r="K8" s="444" t="s">
+      <c r="K8" s="445" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="445"/>
-      <c r="M8" s="446"/>
+      <c r="L8" s="446"/>
+      <c r="M8" s="447"/>
     </row>
     <row r="9" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B9" s="314" t="s">
@@ -11288,7 +11288,7 @@
       <c r="C9" s="315">
         <v>2000000</v>
       </c>
-      <c r="D9" s="454"/>
+      <c r="D9" s="455"/>
       <c r="E9" s="316" t="s">
         <v>1</v>
       </c>
@@ -11313,7 +11313,7 @@
       <c r="C10" s="318">
         <v>9133.6149999999998</v>
       </c>
-      <c r="D10" s="454"/>
+      <c r="D10" s="455"/>
       <c r="E10" s="316" t="s">
         <v>4</v>
       </c>
@@ -11334,7 +11334,7 @@
     <row r="11" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B11" s="314"/>
       <c r="C11" s="318"/>
-      <c r="D11" s="454"/>
+      <c r="D11" s="455"/>
       <c r="E11" s="316" t="s">
         <v>7</v>
       </c>
@@ -11359,7 +11359,7 @@
       <c r="C12" s="318">
         <v>8283</v>
       </c>
-      <c r="D12" s="454"/>
+      <c r="D12" s="455"/>
       <c r="E12" s="316" t="s">
         <v>2</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="318"/>
-      <c r="D13" s="454"/>
+      <c r="D13" s="455"/>
       <c r="E13" s="316" t="s">
         <v>127</v>
       </c>
@@ -11391,7 +11391,7 @@
     <row r="14" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="314"/>
       <c r="C14" s="322"/>
-      <c r="D14" s="454"/>
+      <c r="D14" s="455"/>
       <c r="E14" s="323"/>
       <c r="F14" s="319"/>
       <c r="G14" s="19"/>
@@ -11402,7 +11402,7 @@
     <row r="15" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="324"/>
       <c r="C15" s="325"/>
-      <c r="D15" s="454"/>
+      <c r="D15" s="455"/>
       <c r="E15" s="316" t="s">
         <v>5</v>
       </c>
@@ -11428,7 +11428,7 @@
         <f>C10-C12-C13-C15</f>
         <v>850.61499999999978</v>
       </c>
-      <c r="D16" s="454"/>
+      <c r="D16" s="455"/>
       <c r="E16" s="316" t="s">
         <v>15</v>
       </c>
@@ -11447,7 +11447,7 @@
     <row r="17" spans="2:13" ht="21.75" x14ac:dyDescent="0.3">
       <c r="B17" s="324"/>
       <c r="C17" s="325"/>
-      <c r="D17" s="454"/>
+      <c r="D17" s="455"/>
       <c r="E17" s="323"/>
       <c r="F17" s="326"/>
       <c r="G17" s="19"/>
@@ -11464,7 +11464,7 @@
     <row r="18" spans="2:13" s="21" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="B18" s="314"/>
       <c r="C18" s="318"/>
-      <c r="D18" s="454"/>
+      <c r="D18" s="455"/>
       <c r="E18" s="316"/>
       <c r="F18" s="327"/>
       <c r="G18" s="20"/>
@@ -11480,7 +11480,7 @@
         <f>C9+C10-C12-C15-C17</f>
         <v>2000850.615</v>
       </c>
-      <c r="D19" s="454"/>
+      <c r="D19" s="455"/>
       <c r="E19" s="316" t="s">
         <v>3</v>
       </c>
@@ -11502,7 +11502,7 @@
     <row r="20" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="328"/>
       <c r="C20" s="329"/>
-      <c r="D20" s="455"/>
+      <c r="D20" s="456"/>
       <c r="E20" s="330"/>
       <c r="F20" s="331"/>
       <c r="G20" s="19"/>
@@ -11511,11 +11511,11 @@
       <c r="M20" s="137"/>
     </row>
     <row r="21" spans="2:13" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="447"/>
-      <c r="C21" s="448"/>
-      <c r="D21" s="448"/>
-      <c r="E21" s="448"/>
-      <c r="F21" s="449"/>
+      <c r="B21" s="448"/>
+      <c r="C21" s="449"/>
+      <c r="D21" s="449"/>
+      <c r="E21" s="449"/>
+      <c r="F21" s="450"/>
       <c r="G21" s="22"/>
       <c r="K21" s="138"/>
       <c r="L21" s="138"/>
@@ -11886,10 +11886,10 @@
       <c r="C56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
-      <c r="K56" s="436" t="s">
+      <c r="K56" s="437" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="437"/>
+      <c r="L56" s="438"/>
       <c r="M56" s="332">
         <f>SUM(M10:M55)</f>
         <v>128008</v>
@@ -12023,9 +12023,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12054,119 +12054,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="467" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="467"/>
+      <c r="L1" s="467"/>
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
+      <c r="O1" s="467"/>
+      <c r="P1" s="467"/>
+      <c r="Q1" s="467"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="466"/>
-      <c r="B2" s="466"/>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="466"/>
-      <c r="F2" s="466"/>
-      <c r="G2" s="466"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="466"/>
-      <c r="J2" s="466"/>
-      <c r="K2" s="466"/>
-      <c r="L2" s="466"/>
-      <c r="M2" s="466"/>
-      <c r="N2" s="466"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="466"/>
-      <c r="Q2" s="466"/>
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="467"/>
+      <c r="M2" s="467"/>
+      <c r="N2" s="467"/>
+      <c r="O2" s="467"/>
+      <c r="P2" s="467"/>
+      <c r="Q2" s="467"/>
     </row>
     <row r="3" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="467" t="s">
+      <c r="A3" s="468" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467"/>
-      <c r="J3" s="467"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="467"/>
-      <c r="M3" s="467"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467"/>
-      <c r="P3" s="467"/>
-      <c r="Q3" s="467"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="468"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="468"/>
+      <c r="O3" s="468"/>
+      <c r="P3" s="468"/>
+      <c r="Q3" s="468"/>
     </row>
     <row r="4" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="468" t="s">
+      <c r="A4" s="469" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
-      <c r="D4" s="468"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="468"/>
-      <c r="G4" s="468"/>
-      <c r="H4" s="468"/>
-      <c r="I4" s="468"/>
-      <c r="J4" s="468"/>
-      <c r="K4" s="468"/>
-      <c r="L4" s="468"/>
-      <c r="M4" s="468"/>
-      <c r="N4" s="468"/>
-      <c r="O4" s="468"/>
-      <c r="P4" s="468"/>
-      <c r="Q4" s="468"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="469"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="469"/>
+      <c r="J4" s="469"/>
+      <c r="K4" s="469"/>
+      <c r="L4" s="469"/>
+      <c r="M4" s="469"/>
+      <c r="N4" s="469"/>
+      <c r="O4" s="469"/>
+      <c r="P4" s="469"/>
+      <c r="Q4" s="469"/>
       <c r="U4" s="99">
         <v>2455</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="473" t="s">
+      <c r="A5" s="474" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="474"/>
-      <c r="C5" s="475"/>
+      <c r="B5" s="475"/>
+      <c r="C5" s="476"/>
       <c r="D5" s="289" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="289"/>
-      <c r="F5" s="469" t="s">
+      <c r="F5" s="470" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="470"/>
-      <c r="H5" s="470"/>
-      <c r="I5" s="470"/>
-      <c r="J5" s="470"/>
-      <c r="K5" s="470"/>
-      <c r="L5" s="470"/>
-      <c r="M5" s="470"/>
-      <c r="N5" s="470"/>
-      <c r="O5" s="470"/>
-      <c r="P5" s="470"/>
-      <c r="Q5" s="471"/>
-      <c r="T5" s="463" t="s">
+      <c r="G5" s="471"/>
+      <c r="H5" s="471"/>
+      <c r="I5" s="471"/>
+      <c r="J5" s="471"/>
+      <c r="K5" s="471"/>
+      <c r="L5" s="471"/>
+      <c r="M5" s="471"/>
+      <c r="N5" s="471"/>
+      <c r="O5" s="471"/>
+      <c r="P5" s="471"/>
+      <c r="Q5" s="472"/>
+      <c r="T5" s="464" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="464"/>
-      <c r="V5" s="465"/>
+      <c r="U5" s="465"/>
+      <c r="V5" s="466"/>
     </row>
     <row r="6" spans="1:22" s="283" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="301" t="s">
@@ -12734,11 +12734,11 @@
       </c>
       <c r="P19" s="120"/>
       <c r="Q19" s="125"/>
-      <c r="T19" s="472" t="s">
+      <c r="T19" s="473" t="s">
         <v>111</v>
       </c>
-      <c r="U19" s="472"/>
-      <c r="V19" s="472"/>
+      <c r="U19" s="473"/>
+      <c r="V19" s="473"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="104">
@@ -12752,12 +12752,8 @@
       </c>
       <c r="D20" s="128"/>
       <c r="E20" s="291"/>
-      <c r="F20" s="296">
-        <v>100</v>
-      </c>
-      <c r="G20" s="118">
-        <v>150</v>
-      </c>
+      <c r="F20" s="296"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="118">
         <v>200</v>
       </c>
@@ -12767,10 +12763,10 @@
       <c r="L20" s="118"/>
       <c r="M20" s="119"/>
       <c r="N20" s="120">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O20" s="120">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P20" s="120">
         <v>5</v>
@@ -13044,11 +13040,11 @@
       <c r="Q28" s="125"/>
     </row>
     <row r="29" spans="1:22" s="109" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="460" t="s">
+      <c r="A29" s="461" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="461"/>
-      <c r="C29" s="462"/>
+      <c r="B29" s="462"/>
+      <c r="C29" s="463"/>
       <c r="D29" s="140">
         <f t="shared" ref="D29:P29" si="1">SUM(D7:D28)</f>
         <v>0</v>
@@ -13059,11 +13055,11 @@
       </c>
       <c r="F29" s="299">
         <f t="shared" si="1"/>
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="G29" s="140">
         <f t="shared" si="1"/>
-        <v>1220</v>
+        <v>1070</v>
       </c>
       <c r="H29" s="140">
         <f t="shared" si="1"/>
@@ -13091,11 +13087,11 @@
       </c>
       <c r="N29" s="140">
         <f t="shared" si="1"/>
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="O29" s="140">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="P29" s="140">
         <f t="shared" si="1"/>
@@ -13802,17 +13798,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="467" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
       <c r="J1" s="241"/>
       <c r="K1" s="241"/>
       <c r="L1" s="241"/>
@@ -13823,15 +13819,15 @@
       <c r="Q1" s="241"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="466"/>
-      <c r="B2" s="466"/>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="466"/>
-      <c r="F2" s="466"/>
-      <c r="G2" s="466"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="466"/>
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
       <c r="J2" s="241"/>
       <c r="K2" s="241"/>
       <c r="L2" s="241"/>
@@ -13842,17 +13838,17 @@
       <c r="Q2" s="241"/>
     </row>
     <row r="3" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="467" t="s">
+      <c r="A3" s="468" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
       <c r="J3" s="242"/>
       <c r="K3" s="242"/>
       <c r="L3" s="242"/>
@@ -13863,17 +13859,17 @@
       <c r="Q3" s="242"/>
     </row>
     <row r="4" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="468" t="s">
+      <c r="A4" s="469" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
-      <c r="D4" s="468"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="468"/>
-      <c r="G4" s="468"/>
-      <c r="H4" s="468"/>
-      <c r="I4" s="468"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="469"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="469"/>
       <c r="J4" s="390"/>
       <c r="K4" s="390"/>
       <c r="L4" s="390"/>
@@ -13884,17 +13880,17 @@
       <c r="Q4" s="390"/>
     </row>
     <row r="5" spans="1:22" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="479" t="s">
+      <c r="A5" s="480" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="480"/>
-      <c r="C5" s="480"/>
-      <c r="D5" s="480"/>
-      <c r="E5" s="480"/>
-      <c r="F5" s="480"/>
-      <c r="G5" s="480"/>
-      <c r="H5" s="480"/>
-      <c r="I5" s="480"/>
+      <c r="B5" s="481"/>
+      <c r="C5" s="481"/>
+      <c r="D5" s="481"/>
+      <c r="E5" s="481"/>
+      <c r="F5" s="481"/>
+      <c r="G5" s="481"/>
+      <c r="H5" s="481"/>
+      <c r="I5" s="481"/>
       <c r="J5" s="389"/>
       <c r="K5" s="389"/>
       <c r="L5" s="389"/>
@@ -13936,11 +13932,11 @@
       <c r="O6" s="390"/>
       <c r="P6" s="390"/>
       <c r="Q6" s="390"/>
-      <c r="T6" s="463" t="s">
+      <c r="T6" s="464" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="464"/>
-      <c r="V6" s="465"/>
+      <c r="U6" s="465"/>
+      <c r="V6" s="466"/>
     </row>
     <row r="7" spans="1:22" s="100" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="344"/>
@@ -14067,11 +14063,11 @@
       <c r="O11" s="353"/>
       <c r="P11" s="351"/>
       <c r="Q11" s="388"/>
-      <c r="T11" s="476" t="s">
+      <c r="T11" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="U11" s="477"/>
-      <c r="V11" s="478"/>
+      <c r="U11" s="478"/>
+      <c r="V11" s="479"/>
     </row>
     <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
@@ -14142,11 +14138,11 @@
       <c r="O14" s="351"/>
       <c r="P14" s="351"/>
       <c r="Q14" s="388"/>
-      <c r="T14" s="476" t="s">
+      <c r="T14" s="477" t="s">
         <v>101</v>
       </c>
-      <c r="U14" s="477"/>
-      <c r="V14" s="478"/>
+      <c r="U14" s="478"/>
+      <c r="V14" s="479"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="126"/>
@@ -15493,61 +15489,61 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="482" t="s">
+      <c r="B2" s="483" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="483"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="483"/>
-      <c r="F2" s="483"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="484"/>
-      <c r="O2" s="484"/>
-      <c r="P2" s="484"/>
-      <c r="Q2" s="484"/>
-      <c r="R2" s="484"/>
-      <c r="S2" s="484"/>
-      <c r="T2" s="484"/>
-      <c r="U2" s="484"/>
-      <c r="V2" s="484"/>
-      <c r="W2" s="484"/>
-      <c r="X2" s="485"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="485"/>
+      <c r="J2" s="485"/>
+      <c r="K2" s="485"/>
+      <c r="L2" s="485"/>
+      <c r="M2" s="485"/>
+      <c r="N2" s="485"/>
+      <c r="O2" s="485"/>
+      <c r="P2" s="485"/>
+      <c r="Q2" s="485"/>
+      <c r="R2" s="485"/>
+      <c r="S2" s="485"/>
+      <c r="T2" s="485"/>
+      <c r="U2" s="485"/>
+      <c r="V2" s="485"/>
+      <c r="W2" s="485"/>
+      <c r="X2" s="486"/>
       <c r="Y2" s="191"/>
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="488" t="s">
+      <c r="B3" s="489" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="489"/>
-      <c r="D3" s="489"/>
-      <c r="E3" s="489"/>
-      <c r="F3" s="490"/>
-      <c r="G3" s="492"/>
-      <c r="H3" s="492"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="492"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="486" t="s">
+      <c r="C3" s="490"/>
+      <c r="D3" s="490"/>
+      <c r="E3" s="490"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="493"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="487" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="486"/>
-      <c r="N3" s="486"/>
-      <c r="O3" s="486"/>
-      <c r="P3" s="486"/>
-      <c r="Q3" s="486"/>
-      <c r="R3" s="486"/>
-      <c r="S3" s="486"/>
-      <c r="T3" s="486"/>
-      <c r="U3" s="486"/>
-      <c r="V3" s="486"/>
-      <c r="W3" s="486"/>
-      <c r="X3" s="487"/>
+      <c r="M3" s="487"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="487"/>
+      <c r="P3" s="487"/>
+      <c r="Q3" s="487"/>
+      <c r="R3" s="487"/>
+      <c r="S3" s="487"/>
+      <c r="T3" s="487"/>
+      <c r="U3" s="487"/>
+      <c r="V3" s="487"/>
+      <c r="W3" s="487"/>
+      <c r="X3" s="488"/>
       <c r="Y3" s="192"/>
       <c r="Z3" s="192"/>
       <c r="AA3" s="192"/>
@@ -15558,42 +15554,42 @@
     </row>
     <row r="4" spans="2:31" s="99" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="280"/>
-      <c r="C4" s="481" t="s">
+      <c r="C4" s="482" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="481"/>
-      <c r="E4" s="481"/>
-      <c r="F4" s="481" t="s">
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="481"/>
-      <c r="H4" s="481"/>
-      <c r="I4" s="481" t="s">
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="481"/>
-      <c r="K4" s="481"/>
-      <c r="L4" s="481" t="s">
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="482" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="481"/>
-      <c r="N4" s="481"/>
-      <c r="O4" s="481" t="s">
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+      <c r="O4" s="482" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="481"/>
-      <c r="Q4" s="481"/>
-      <c r="R4" s="481" t="s">
+      <c r="P4" s="482"/>
+      <c r="Q4" s="482"/>
+      <c r="R4" s="482" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="481"/>
-      <c r="T4" s="481"/>
-      <c r="U4" s="481" t="s">
+      <c r="S4" s="482"/>
+      <c r="T4" s="482"/>
+      <c r="U4" s="482" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="481"/>
-      <c r="W4" s="481"/>
-      <c r="X4" s="491" t="s">
+      <c r="V4" s="482"/>
+      <c r="W4" s="482"/>
+      <c r="X4" s="492" t="s">
         <v>98</v>
       </c>
       <c r="Y4" s="192"/>
@@ -15671,7 +15667,7 @@
       <c r="W5" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="X5" s="491"/>
+      <c r="X5" s="492"/>
       <c r="Y5" s="192"/>
       <c r="Z5" s="192"/>
       <c r="AA5" s="192"/>
@@ -16786,99 +16782,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="467" t="s">
+      <c r="A1" s="468" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="467"/>
-      <c r="C1" s="467"/>
-      <c r="D1" s="467"/>
-      <c r="E1" s="467"/>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467"/>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
-      <c r="K1" s="467"/>
-      <c r="L1" s="467"/>
-      <c r="M1" s="467"/>
-      <c r="N1" s="467"/>
-      <c r="O1" s="467"/>
-      <c r="P1" s="467"/>
-      <c r="Q1" s="467"/>
-      <c r="R1" s="467"/>
-      <c r="S1" s="467"/>
-      <c r="T1" s="467"/>
-      <c r="U1" s="467"/>
-      <c r="V1" s="467"/>
-      <c r="W1" s="467"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
+      <c r="M1" s="468"/>
+      <c r="N1" s="468"/>
+      <c r="O1" s="468"/>
+      <c r="P1" s="468"/>
+      <c r="Q1" s="468"/>
+      <c r="R1" s="468"/>
+      <c r="S1" s="468"/>
+      <c r="T1" s="468"/>
+      <c r="U1" s="468"/>
+      <c r="V1" s="468"/>
+      <c r="W1" s="468"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="498" t="s">
+      <c r="A2" s="499" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="498"/>
-      <c r="F2" s="499"/>
-      <c r="G2" s="468"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="468"/>
-      <c r="J2" s="468"/>
-      <c r="K2" s="500" t="s">
+      <c r="B2" s="499"/>
+      <c r="C2" s="499"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="500"/>
+      <c r="G2" s="469"/>
+      <c r="H2" s="469"/>
+      <c r="I2" s="469"/>
+      <c r="J2" s="469"/>
+      <c r="K2" s="501" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="500"/>
-      <c r="M2" s="500"/>
-      <c r="N2" s="500"/>
-      <c r="O2" s="500"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="500"/>
-      <c r="R2" s="500"/>
-      <c r="S2" s="500"/>
-      <c r="T2" s="500"/>
-      <c r="U2" s="500"/>
-      <c r="V2" s="500"/>
-      <c r="W2" s="500"/>
+      <c r="L2" s="501"/>
+      <c r="M2" s="501"/>
+      <c r="N2" s="501"/>
+      <c r="O2" s="501"/>
+      <c r="P2" s="501"/>
+      <c r="Q2" s="501"/>
+      <c r="R2" s="501"/>
+      <c r="S2" s="501"/>
+      <c r="T2" s="501"/>
+      <c r="U2" s="501"/>
+      <c r="V2" s="501"/>
+      <c r="W2" s="501"/>
     </row>
     <row r="3" spans="1:23" s="99" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181"/>
-      <c r="B3" s="493" t="s">
+      <c r="B3" s="494" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="494"/>
-      <c r="D3" s="495"/>
-      <c r="E3" s="493" t="s">
+      <c r="C3" s="495"/>
+      <c r="D3" s="496"/>
+      <c r="E3" s="494" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="493" t="s">
+      <c r="F3" s="495"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="494" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="494"/>
-      <c r="J3" s="495"/>
-      <c r="K3" s="493" t="s">
+      <c r="I3" s="495"/>
+      <c r="J3" s="496"/>
+      <c r="K3" s="494" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="494"/>
-      <c r="M3" s="495"/>
-      <c r="N3" s="493" t="s">
+      <c r="L3" s="495"/>
+      <c r="M3" s="496"/>
+      <c r="N3" s="494" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="494"/>
-      <c r="P3" s="495"/>
-      <c r="Q3" s="493" t="s">
+      <c r="O3" s="495"/>
+      <c r="P3" s="496"/>
+      <c r="Q3" s="494" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="494"/>
-      <c r="S3" s="495"/>
-      <c r="T3" s="493" t="s">
+      <c r="R3" s="495"/>
+      <c r="S3" s="496"/>
+      <c r="T3" s="494" t="s">
         <v>96</v>
       </c>
-      <c r="U3" s="494"/>
-      <c r="V3" s="495"/>
-      <c r="W3" s="496" t="s">
+      <c r="U3" s="495"/>
+      <c r="V3" s="496"/>
+      <c r="W3" s="497" t="s">
         <v>98</v>
       </c>
     </row>
@@ -16949,7 +16945,7 @@
       <c r="V4" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="497"/>
+      <c r="W4" s="498"/>
     </row>
     <row r="5" spans="1:23" s="99" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="155">
@@ -17466,14 +17462,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="467" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
       <c r="G1" s="241"/>
       <c r="H1" s="241"/>
       <c r="I1" s="241"/>
@@ -17487,12 +17483,12 @@
       <c r="Q1" s="241"/>
     </row>
     <row r="2" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="466"/>
-      <c r="B2" s="466"/>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="466"/>
-      <c r="F2" s="466"/>
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
       <c r="G2" s="241"/>
       <c r="H2" s="241"/>
       <c r="I2" s="241"/>
@@ -17506,14 +17502,14 @@
       <c r="Q2" s="241"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="467" t="s">
+      <c r="A3" s="468" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
       <c r="G3" s="242"/>
       <c r="H3" s="242"/>
       <c r="I3" s="242"/>
@@ -17527,14 +17523,14 @@
       <c r="Q3" s="242"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="468" t="s">
+      <c r="A4" s="469" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
-      <c r="D4" s="468"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="468"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="469"/>
       <c r="G4" s="240"/>
       <c r="H4" s="240"/>
       <c r="I4" s="240"/>
@@ -17551,17 +17547,17 @@
       <c r="A5" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="506" t="s">
+      <c r="B5" s="507" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="507"/>
+      <c r="C5" s="508"/>
       <c r="D5" s="270" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="501" t="s">
+      <c r="E5" s="502" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="502"/>
+      <c r="F5" s="503"/>
       <c r="G5" s="240"/>
       <c r="H5" s="240"/>
       <c r="I5" s="240"/>
@@ -17578,17 +17574,17 @@
       <c r="A6" s="271" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="503" t="s">
+      <c r="B6" s="504" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="503"/>
+      <c r="C6" s="504"/>
       <c r="D6" s="272" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="504" t="s">
+      <c r="E6" s="505" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="505"/>
+      <c r="F6" s="506"/>
       <c r="G6" s="240"/>
       <c r="H6" s="240"/>
       <c r="I6" s="240"/>
@@ -18376,94 +18372,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="467" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
-      <c r="R1" s="466"/>
-      <c r="S1" s="466"/>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="467"/>
+      <c r="L1" s="467"/>
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
+      <c r="O1" s="467"/>
+      <c r="P1" s="467"/>
+      <c r="Q1" s="467"/>
+      <c r="R1" s="467"/>
+      <c r="S1" s="467"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="466"/>
-      <c r="B2" s="466"/>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="466"/>
-      <c r="F2" s="466"/>
-      <c r="G2" s="466"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="466"/>
-      <c r="J2" s="466"/>
-      <c r="K2" s="466"/>
-      <c r="L2" s="466"/>
-      <c r="M2" s="466"/>
-      <c r="N2" s="466"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="466"/>
-      <c r="Q2" s="466"/>
-      <c r="R2" s="466"/>
-      <c r="S2" s="466"/>
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="467"/>
+      <c r="M2" s="467"/>
+      <c r="N2" s="467"/>
+      <c r="O2" s="467"/>
+      <c r="P2" s="467"/>
+      <c r="Q2" s="467"/>
+      <c r="R2" s="467"/>
+      <c r="S2" s="467"/>
     </row>
     <row r="3" spans="1:40" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="467" t="s">
+      <c r="A3" s="468" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467"/>
-      <c r="J3" s="467"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="467"/>
-      <c r="M3" s="467"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467"/>
-      <c r="P3" s="467"/>
-      <c r="Q3" s="467"/>
-      <c r="R3" s="467"/>
-      <c r="S3" s="467"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="468"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="468"/>
+      <c r="O3" s="468"/>
+      <c r="P3" s="468"/>
+      <c r="Q3" s="468"/>
+      <c r="R3" s="468"/>
+      <c r="S3" s="468"/>
     </row>
     <row r="4" spans="1:40" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="468" t="s">
+      <c r="A4" s="469" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
-      <c r="D4" s="468"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="468"/>
-      <c r="G4" s="468"/>
-      <c r="H4" s="468"/>
-      <c r="I4" s="468"/>
-      <c r="J4" s="468"/>
-      <c r="K4" s="468"/>
-      <c r="L4" s="468"/>
-      <c r="M4" s="468"/>
-      <c r="N4" s="468"/>
-      <c r="O4" s="468"/>
-      <c r="P4" s="468"/>
-      <c r="Q4" s="468"/>
-      <c r="R4" s="468"/>
-      <c r="S4" s="468"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="469"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="469"/>
+      <c r="J4" s="469"/>
+      <c r="K4" s="469"/>
+      <c r="L4" s="469"/>
+      <c r="M4" s="469"/>
+      <c r="N4" s="469"/>
+      <c r="O4" s="469"/>
+      <c r="P4" s="469"/>
+      <c r="Q4" s="469"/>
+      <c r="R4" s="469"/>
+      <c r="S4" s="469"/>
     </row>
     <row r="5" spans="1:40" s="99" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="345"/>
@@ -18487,9 +18483,9 @@
       <c r="S5" s="343"/>
       <c r="T5" s="346"/>
       <c r="U5" s="346"/>
-      <c r="V5" s="468"/>
-      <c r="W5" s="468"/>
-      <c r="X5" s="468"/>
+      <c r="V5" s="469"/>
+      <c r="W5" s="469"/>
+      <c r="X5" s="469"/>
       <c r="Y5" s="346"/>
       <c r="Z5" s="346"/>
       <c r="AA5" s="346"/>
@@ -18779,9 +18775,9 @@
       <c r="S10" s="341"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="508"/>
-      <c r="W10" s="508"/>
-      <c r="X10" s="508"/>
+      <c r="V10" s="509"/>
+      <c r="W10" s="509"/>
+      <c r="X10" s="509"/>
       <c r="Y10" s="49"/>
       <c r="Z10" s="49"/>
       <c r="AA10" s="49"/>
@@ -18942,9 +18938,9 @@
       <c r="S13" s="341"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="508"/>
-      <c r="W13" s="508"/>
-      <c r="X13" s="508"/>
+      <c r="V13" s="509"/>
+      <c r="W13" s="509"/>
+      <c r="X13" s="509"/>
       <c r="Y13" s="49"/>
       <c r="Z13" s="49"/>
       <c r="AA13" s="49"/>
@@ -19613,9 +19609,9 @@
       <c r="AN27" s="49"/>
     </row>
     <row r="28" spans="1:40" s="109" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="509"/>
-      <c r="B28" s="509"/>
-      <c r="C28" s="509"/>
+      <c r="A28" s="510"/>
+      <c r="B28" s="510"/>
+      <c r="C28" s="510"/>
       <c r="D28" s="356"/>
       <c r="E28" s="356"/>
       <c r="F28" s="356"/>
